--- a/Code/Results/Cases/Case_9_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9626343990084933</v>
+        <v>0.8706848204669768</v>
       </c>
       <c r="C2">
-        <v>0.1599984413530109</v>
+        <v>0.1876795242513225</v>
       </c>
       <c r="D2">
-        <v>0.05151597895472193</v>
+        <v>0.05483769752856915</v>
       </c>
       <c r="E2">
-        <v>0.3339542197778158</v>
+        <v>0.3378330389036321</v>
       </c>
       <c r="F2">
-        <v>0.8869006537829307</v>
+        <v>0.7872132479459921</v>
       </c>
       <c r="G2">
-        <v>0.8163975530894305</v>
+        <v>0.68791498970117</v>
       </c>
       <c r="H2">
-        <v>2.019181348877908E-05</v>
+        <v>3.994852940891747E-06</v>
       </c>
       <c r="I2">
-        <v>0.001523896961268534</v>
+        <v>0.001057900428024894</v>
       </c>
       <c r="J2">
-        <v>0.569226554995268</v>
+        <v>0.5400920931065372</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2304114480007797</v>
       </c>
       <c r="M2">
-        <v>1.01285461438701</v>
+        <v>0.1442082157229514</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6202001311850438</v>
+        <v>0.9975290367964931</v>
       </c>
       <c r="P2">
-        <v>1.094888769536809</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6173102763800458</v>
+      </c>
+      <c r="R2">
+        <v>0.9990119413311369</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8369868714252959</v>
+        <v>0.7615843672793687</v>
       </c>
       <c r="C3">
-        <v>0.1412452158951822</v>
+        <v>0.1621149770716244</v>
       </c>
       <c r="D3">
-        <v>0.04853858802289324</v>
+        <v>0.05069188581334672</v>
       </c>
       <c r="E3">
-        <v>0.2914736537126785</v>
+        <v>0.2954429971992951</v>
       </c>
       <c r="F3">
-        <v>0.8262808591026456</v>
+        <v>0.7392651378684008</v>
       </c>
       <c r="G3">
-        <v>0.762683260298985</v>
+        <v>0.6498472791028718</v>
       </c>
       <c r="H3">
-        <v>0.0003524804333632225</v>
+        <v>0.0002422194897175878</v>
       </c>
       <c r="I3">
-        <v>0.002701606952029145</v>
+        <v>0.001780112671956768</v>
       </c>
       <c r="J3">
-        <v>0.5482452509876907</v>
+        <v>0.5218634260456838</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2316418213003217</v>
       </c>
       <c r="M3">
-        <v>0.8800351874403702</v>
+        <v>0.1347767619995963</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5398354894763457</v>
+        <v>0.8683847222262386</v>
       </c>
       <c r="P3">
-        <v>1.116823446367015</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5377660301384566</v>
+      </c>
+      <c r="R3">
+        <v>1.026279379804045</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7595761063201962</v>
+        <v>0.6940887466421941</v>
       </c>
       <c r="C4">
-        <v>0.1298972227463935</v>
+        <v>0.1467064979190269</v>
       </c>
       <c r="D4">
-        <v>0.04669552574886637</v>
+        <v>0.04814814581582283</v>
       </c>
       <c r="E4">
-        <v>0.2654327974298738</v>
+        <v>0.2694377726224104</v>
       </c>
       <c r="F4">
-        <v>0.789515518144384</v>
+        <v>0.7100794661557188</v>
       </c>
       <c r="G4">
-        <v>0.7300445850699049</v>
+        <v>0.6267718850987194</v>
       </c>
       <c r="H4">
-        <v>0.0007760096427238405</v>
+        <v>0.0005854453393550063</v>
       </c>
       <c r="I4">
-        <v>0.003708196473871439</v>
+        <v>0.002444280816970235</v>
       </c>
       <c r="J4">
-        <v>0.5356062516290621</v>
+        <v>0.5106260502081312</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2322721680733615</v>
       </c>
       <c r="M4">
-        <v>0.7985573918839464</v>
+        <v>0.1296191375994873</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.490535340380724</v>
+        <v>0.7890425955824298</v>
       </c>
       <c r="P4">
-        <v>1.130604638135885</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4889378543024705</v>
+      </c>
+      <c r="R4">
+        <v>1.043333434150895</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7270259329619648</v>
+        <v>0.6656037585413799</v>
       </c>
       <c r="C5">
-        <v>0.1256424982775286</v>
+        <v>0.1408631873875805</v>
       </c>
       <c r="D5">
-        <v>0.04598297870747459</v>
+        <v>0.04715970191252694</v>
       </c>
       <c r="E5">
-        <v>0.2548360658888598</v>
+        <v>0.2588508667778626</v>
       </c>
       <c r="F5">
-        <v>0.7737654945132348</v>
+        <v>0.6974572544607511</v>
       </c>
       <c r="G5">
-        <v>0.7158541390085844</v>
+        <v>0.6165855038872365</v>
       </c>
       <c r="H5">
-        <v>0.001001942780311404</v>
+        <v>0.0007731237079262598</v>
       </c>
       <c r="I5">
-        <v>0.004264397857972835</v>
+        <v>0.002856860282030915</v>
       </c>
       <c r="J5">
-        <v>0.5300193530867148</v>
+        <v>0.5055803204512301</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2322008672655222</v>
       </c>
       <c r="M5">
-        <v>0.765179805707362</v>
+        <v>0.1274844271171425</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4704089037232464</v>
+        <v>0.7565176328565713</v>
       </c>
       <c r="P5">
-        <v>1.135584627952952</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4689987328181502</v>
+      </c>
+      <c r="R5">
+        <v>1.049802875415836</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7204749602247773</v>
+        <v>0.6598266816598652</v>
       </c>
       <c r="C6">
-        <v>0.1253459997855231</v>
+        <v>0.1403491956046992</v>
       </c>
       <c r="D6">
-        <v>0.04591664587433186</v>
+        <v>0.04705459311728433</v>
       </c>
       <c r="E6">
-        <v>0.2530875229626375</v>
+        <v>0.2571033985050946</v>
       </c>
       <c r="F6">
-        <v>0.7700894232508162</v>
+        <v>0.6944046810911857</v>
       </c>
       <c r="G6">
-        <v>0.7123201971172648</v>
+        <v>0.613860053818172</v>
       </c>
       <c r="H6">
-        <v>0.001043761534438303</v>
+        <v>0.0008080351432924182</v>
       </c>
       <c r="I6">
-        <v>0.004463564589948454</v>
+        <v>0.003046091028500619</v>
       </c>
       <c r="J6">
-        <v>0.5284914814694872</v>
+        <v>0.5041871109792169</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2318257673879067</v>
       </c>
       <c r="M6">
-        <v>0.7594139669813558</v>
+        <v>0.1269058884195147</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4670166628948635</v>
+        <v>0.7509043418453416</v>
       </c>
       <c r="P6">
-        <v>1.135548851348069</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4656397738165339</v>
+      </c>
+      <c r="R6">
+        <v>1.050205430041885</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7560073566896506</v>
+        <v>0.6901543657573086</v>
       </c>
       <c r="C7">
-        <v>0.1309556858038121</v>
+        <v>0.1475186138470832</v>
       </c>
       <c r="D7">
-        <v>0.04682940782663891</v>
+        <v>0.0484001601498214</v>
       </c>
       <c r="E7">
-        <v>0.265319216094106</v>
+        <v>0.2694220402047875</v>
       </c>
       <c r="F7">
-        <v>0.7863864018374613</v>
+        <v>0.7056866970527409</v>
       </c>
       <c r="G7">
-        <v>0.7266214772266437</v>
+        <v>0.62700647918507</v>
       </c>
       <c r="H7">
-        <v>0.0007816361967298846</v>
+        <v>0.0005914581016068787</v>
       </c>
       <c r="I7">
-        <v>0.003978964964741039</v>
+        <v>0.002756449661372784</v>
       </c>
       <c r="J7">
-        <v>0.5338825037110837</v>
+        <v>0.5029284195705799</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2308943388126785</v>
       </c>
       <c r="M7">
-        <v>0.7974930088531096</v>
+        <v>0.1286544456308611</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.490125457466263</v>
+        <v>0.786908310664387</v>
       </c>
       <c r="P7">
-        <v>1.128316289035595</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.488295403239583</v>
+      </c>
+      <c r="R7">
+        <v>1.04070870062775</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9151721821702381</v>
+        <v>0.8270176617793084</v>
       </c>
       <c r="C8">
-        <v>0.1549860807751173</v>
+        <v>0.1792899471991234</v>
       </c>
       <c r="D8">
-        <v>0.05068639640111172</v>
+        <v>0.05398201772447919</v>
       </c>
       <c r="E8">
-        <v>0.3193338794917082</v>
+        <v>0.3235800616129509</v>
       </c>
       <c r="F8">
-        <v>0.8620316896697915</v>
+        <v>0.7618620164469334</v>
       </c>
       <c r="G8">
-        <v>0.7935162487135869</v>
+        <v>0.6817211111320063</v>
       </c>
       <c r="H8">
-        <v>8.866702291365769E-05</v>
+        <v>4.575420003716246E-05</v>
       </c>
       <c r="I8">
-        <v>0.002179990594523673</v>
+        <v>0.001629756971908591</v>
       </c>
       <c r="J8">
-        <v>0.5597610277886957</v>
+        <v>0.5117771299026685</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2284114726714535</v>
       </c>
       <c r="M8">
-        <v>0.9662095086399631</v>
+        <v>0.1388812841414691</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5922904637393529</v>
+        <v>0.9484796329695371</v>
       </c>
       <c r="P8">
-        <v>1.099334083206415</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5888856296851301</v>
+      </c>
+      <c r="R8">
+        <v>1.00324224579159</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.231177833529443</v>
+        <v>1.099222350517124</v>
       </c>
       <c r="C9">
-        <v>0.201617786558387</v>
+        <v>0.2431215479109312</v>
       </c>
       <c r="D9">
-        <v>0.05787837200833224</v>
+        <v>0.06428034668011406</v>
       </c>
       <c r="E9">
-        <v>0.4257481578462006</v>
+        <v>0.4297306789855355</v>
       </c>
       <c r="F9">
-        <v>1.019701199581505</v>
+        <v>0.8848907432537629</v>
       </c>
       <c r="G9">
-        <v>0.9336505076950772</v>
+        <v>0.785147148682185</v>
       </c>
       <c r="H9">
-        <v>0.0006048362919919281</v>
+        <v>0.0006495914115869361</v>
       </c>
       <c r="I9">
-        <v>0.0006725321441400922</v>
+        <v>0.0008167481531557996</v>
       </c>
       <c r="J9">
-        <v>0.6155810355371187</v>
+        <v>0.5532959822113099</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2256299304352325</v>
       </c>
       <c r="M9">
-        <v>1.299292466577555</v>
+        <v>0.1663370325826783</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7935400613278532</v>
+        <v>1.27045347743416</v>
       </c>
       <c r="P9">
-        <v>1.049250909762868</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7876172494437057</v>
+      </c>
+      <c r="R9">
+        <v>0.9386765786725171</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.458448915538469</v>
+        <v>1.29047946801785</v>
       </c>
       <c r="C10">
-        <v>0.2368713927856305</v>
+        <v>0.288813227707351</v>
       </c>
       <c r="D10">
-        <v>0.06399183190337965</v>
+        <v>0.07354159646681779</v>
       </c>
       <c r="E10">
-        <v>0.4727603300382341</v>
+        <v>0.4768521448036438</v>
       </c>
       <c r="F10">
-        <v>1.123058919121746</v>
+        <v>0.9550325310278822</v>
       </c>
       <c r="G10">
-        <v>1.021834441487741</v>
+        <v>0.8685064094236168</v>
       </c>
       <c r="H10">
-        <v>0.00231416425457498</v>
+        <v>0.002271472197540536</v>
       </c>
       <c r="I10">
-        <v>0.001367835248840876</v>
+        <v>0.00164509298537574</v>
       </c>
       <c r="J10">
-        <v>0.649486064825382</v>
+        <v>0.5430132766260698</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2183597344978239</v>
       </c>
       <c r="M10">
-        <v>1.541804263164664</v>
+        <v>0.1845293148241005</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9092800767774847</v>
+        <v>1.497608771634617</v>
       </c>
       <c r="P10">
-        <v>1.003103068926116</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9000347581876085</v>
+      </c>
+      <c r="R10">
+        <v>0.8816748234187237</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.533331061908484</v>
+        <v>1.356816815729019</v>
       </c>
       <c r="C11">
-        <v>0.2480759666434977</v>
+        <v>0.2947167036995211</v>
       </c>
       <c r="D11">
-        <v>0.07485632997008906</v>
+        <v>0.0880312043374758</v>
       </c>
       <c r="E11">
-        <v>0.2597826650206798</v>
+        <v>0.2632862605990098</v>
       </c>
       <c r="F11">
-        <v>1.044478143741927</v>
+        <v>0.8688394956861316</v>
       </c>
       <c r="G11">
-        <v>0.9240912044852081</v>
+        <v>0.8244289528770707</v>
       </c>
       <c r="H11">
-        <v>0.02038135689181786</v>
+        <v>0.0203020089261976</v>
       </c>
       <c r="I11">
-        <v>0.002205877409112489</v>
+        <v>0.002540664736190301</v>
       </c>
       <c r="J11">
-        <v>0.5957801191541421</v>
+        <v>0.4370351633839817</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1912734942055465</v>
       </c>
       <c r="M11">
-        <v>1.622195823671461</v>
+        <v>0.1653574294564528</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.695790315091898</v>
+        <v>1.562520183890825</v>
       </c>
       <c r="P11">
-        <v>0.9015904084465092</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6851000472574285</v>
+      </c>
+      <c r="R11">
+        <v>0.8040747997896105</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.553410334611556</v>
+        <v>1.379703315192188</v>
       </c>
       <c r="C12">
-        <v>0.2482480599980761</v>
+        <v>0.2892670888176525</v>
       </c>
       <c r="D12">
-        <v>0.08353932444745027</v>
+        <v>0.09866949347836851</v>
       </c>
       <c r="E12">
-        <v>0.1263938433771656</v>
+        <v>0.128720337094073</v>
       </c>
       <c r="F12">
-        <v>0.9626706023147307</v>
+        <v>0.7932530909996842</v>
       </c>
       <c r="G12">
-        <v>0.8315608433051267</v>
+        <v>0.7628469539374123</v>
       </c>
       <c r="H12">
-        <v>0.05858995403045242</v>
+        <v>0.05851579807231388</v>
       </c>
       <c r="I12">
-        <v>0.00226080752286606</v>
+        <v>0.002580218450307648</v>
       </c>
       <c r="J12">
-        <v>0.5473049444942433</v>
+        <v>0.3786874301579815</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1736284428514665</v>
       </c>
       <c r="M12">
-        <v>1.639378530653829</v>
+        <v>0.1483528804360574</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5175321873611978</v>
+        <v>1.574048919130945</v>
       </c>
       <c r="P12">
-        <v>0.8407607630897296</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5075351544021558</v>
+      </c>
+      <c r="R12">
+        <v>0.7674439637499013</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.527234743259299</v>
+        <v>1.367825690353527</v>
       </c>
       <c r="C13">
-        <v>0.2417197617768636</v>
+        <v>0.2777080763258084</v>
       </c>
       <c r="D13">
-        <v>0.0911516579330538</v>
+        <v>0.1064271844039979</v>
       </c>
       <c r="E13">
-        <v>0.04622919847430396</v>
+        <v>0.04712188109898996</v>
       </c>
       <c r="F13">
-        <v>0.869098557114711</v>
+        <v>0.7199061669593334</v>
       </c>
       <c r="G13">
-        <v>0.7326980860119221</v>
+        <v>0.6735098638281016</v>
       </c>
       <c r="H13">
-        <v>0.1138715196981366</v>
+        <v>0.1138268741825215</v>
       </c>
       <c r="I13">
-        <v>0.002036096227393536</v>
+        <v>0.002375426839731354</v>
       </c>
       <c r="J13">
-        <v>0.497449935920443</v>
+        <v>0.3532246286365393</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1606339906031202</v>
       </c>
       <c r="M13">
-        <v>1.607701739241833</v>
+        <v>0.1316187921284957</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3568311390193628</v>
+        <v>1.547178901345148</v>
       </c>
       <c r="P13">
-        <v>0.8032240671114792</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.349124957866394</v>
+      </c>
+      <c r="R13">
+        <v>0.7543043263489557</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.487111417852958</v>
+        <v>1.342845952856777</v>
       </c>
       <c r="C14">
-        <v>0.234526754756132</v>
+        <v>0.2672439488517142</v>
       </c>
       <c r="D14">
-        <v>0.09611864742441867</v>
+        <v>0.1105662909672915</v>
       </c>
       <c r="E14">
-        <v>0.02171970310579097</v>
+        <v>0.02173413434084592</v>
       </c>
       <c r="F14">
-        <v>0.7983346945336791</v>
+        <v>0.6686832727444596</v>
       </c>
       <c r="G14">
-        <v>0.6608848622134644</v>
+        <v>0.6005061208221747</v>
       </c>
       <c r="H14">
-        <v>0.1629261882135182</v>
+        <v>0.1629048740600751</v>
       </c>
       <c r="I14">
-        <v>0.00186213024067694</v>
+        <v>0.002235587460183375</v>
       </c>
       <c r="J14">
-        <v>0.4619804719153819</v>
+        <v>0.3468907081459349</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1531704174420376</v>
       </c>
       <c r="M14">
-        <v>1.563382314986399</v>
+        <v>0.1199846854848658</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2567512750940253</v>
+        <v>1.51075787069135</v>
       </c>
       <c r="P14">
-        <v>0.788483854431778</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2510194174830822</v>
+      </c>
+      <c r="R14">
+        <v>0.7549882077412882</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.466246888534755</v>
+        <v>1.328010196750199</v>
       </c>
       <c r="C15">
-        <v>0.231808926588613</v>
+        <v>0.2638152121794661</v>
       </c>
       <c r="D15">
-        <v>0.09704289626980511</v>
+        <v>0.110907561699598</v>
       </c>
       <c r="E15">
-        <v>0.01982085716318882</v>
+        <v>0.01968799738712393</v>
       </c>
       <c r="F15">
-        <v>0.7775452878556592</v>
+        <v>0.6551480341429183</v>
       </c>
       <c r="G15">
-        <v>0.6407388520941453</v>
+        <v>0.577180881276675</v>
       </c>
       <c r="H15">
-        <v>0.1753344782792112</v>
+        <v>0.1753213806858298</v>
       </c>
       <c r="I15">
-        <v>0.001885282563748092</v>
+        <v>0.002290597343469258</v>
       </c>
       <c r="J15">
-        <v>0.4524148651403834</v>
+        <v>0.3497757154799075</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1517843432779493</v>
       </c>
       <c r="M15">
-        <v>1.542014857587162</v>
+        <v>0.116853639259876</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2329894149482001</v>
+        <v>1.493278106589599</v>
       </c>
       <c r="P15">
-        <v>0.7880047516477457</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2279041295407573</v>
+      </c>
+      <c r="R15">
+        <v>0.7579469454621819</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.37208939038814</v>
+        <v>1.253274897161305</v>
       </c>
       <c r="C16">
-        <v>0.2186995874379676</v>
+        <v>0.2506753700148039</v>
       </c>
       <c r="D16">
-        <v>0.09264146127216577</v>
+        <v>0.103376204373852</v>
       </c>
       <c r="E16">
-        <v>0.01901068070995351</v>
+        <v>0.01925785402615432</v>
       </c>
       <c r="F16">
-        <v>0.7515921047271519</v>
+        <v>0.650260235986245</v>
       </c>
       <c r="G16">
-        <v>0.6224981747678555</v>
+        <v>0.5351880401594968</v>
       </c>
       <c r="H16">
-        <v>0.1621933257786594</v>
+        <v>0.1622018468822688</v>
       </c>
       <c r="I16">
-        <v>0.001667145520563018</v>
+        <v>0.002088127005348106</v>
       </c>
       <c r="J16">
-        <v>0.4474876185298342</v>
+        <v>0.3923297859317927</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.157328131310571</v>
       </c>
       <c r="M16">
-        <v>1.443990979389241</v>
+        <v>0.1153617752354883</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2215186673476666</v>
+        <v>1.411551340851958</v>
       </c>
       <c r="P16">
-        <v>0.812485208726498</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2181121903401682</v>
+      </c>
+      <c r="R16">
+        <v>0.7802772618593536</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.321158671428009</v>
+        <v>1.207950241685978</v>
       </c>
       <c r="C17">
-        <v>0.2125261668134755</v>
+        <v>0.2456766213214223</v>
       </c>
       <c r="D17">
-        <v>0.08661095322000989</v>
+        <v>0.09583402871270152</v>
       </c>
       <c r="E17">
-        <v>0.02597556281132363</v>
+        <v>0.02671723921699609</v>
       </c>
       <c r="F17">
-        <v>0.7688756586649959</v>
+        <v>0.672081657304247</v>
       </c>
       <c r="G17">
-        <v>0.6460320813131943</v>
+        <v>0.5441314144683531</v>
       </c>
       <c r="H17">
-        <v>0.1242362840217766</v>
+        <v>0.1242472621114672</v>
       </c>
       <c r="I17">
-        <v>0.001646805380320693</v>
+        <v>0.002051841817487521</v>
       </c>
       <c r="J17">
-        <v>0.4623209170510592</v>
+        <v>0.4256885215362303</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1656916749630248</v>
       </c>
       <c r="M17">
-        <v>1.392444118913318</v>
+        <v>0.1198515562759219</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2625604703304312</v>
+        <v>1.366398482142898</v>
       </c>
       <c r="P17">
-        <v>0.838456607461632</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2595384491089625</v>
+      </c>
+      <c r="R17">
+        <v>0.7984452705267264</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.304114184797186</v>
+        <v>1.186955519403256</v>
       </c>
       <c r="C18">
-        <v>0.2106379826272473</v>
+        <v>0.2468327456696215</v>
       </c>
       <c r="D18">
-        <v>0.07874859183721128</v>
+        <v>0.08719352713454498</v>
       </c>
       <c r="E18">
-        <v>0.06757102387782155</v>
+        <v>0.06896130722167015</v>
       </c>
       <c r="F18">
-        <v>0.8285681297524832</v>
+        <v>0.7253069888085051</v>
       </c>
       <c r="G18">
-        <v>0.7124454523974748</v>
+        <v>0.5944179461282886</v>
       </c>
       <c r="H18">
-        <v>0.07141318959898513</v>
+        <v>0.07142802211672716</v>
       </c>
       <c r="I18">
-        <v>0.001416382424654472</v>
+        <v>0.001764220949945106</v>
       </c>
       <c r="J18">
-        <v>0.4978528024560092</v>
+        <v>0.4645836961526157</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1790485170513101</v>
       </c>
       <c r="M18">
-        <v>1.375232700164702</v>
+        <v>0.1313380573409226</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3667724154635863</v>
+        <v>1.350560567985127</v>
       </c>
       <c r="P18">
-        <v>0.875218197657972</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3633924575205256</v>
+      </c>
+      <c r="R18">
+        <v>0.8205401544983726</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.309425052286855</v>
+        <v>1.182273208979751</v>
       </c>
       <c r="C19">
-        <v>0.2146108463279432</v>
+        <v>0.2557246505881778</v>
       </c>
       <c r="D19">
-        <v>0.07103519090208721</v>
+        <v>0.07908229123600563</v>
       </c>
       <c r="E19">
-        <v>0.175173567296298</v>
+        <v>0.1773758597451476</v>
       </c>
       <c r="F19">
-        <v>0.9157232441732504</v>
+        <v>0.7987700127035993</v>
       </c>
       <c r="G19">
-        <v>0.8072319573115152</v>
+        <v>0.6704701632743877</v>
       </c>
       <c r="H19">
-        <v>0.02643152063446053</v>
+        <v>0.02645471518051323</v>
       </c>
       <c r="I19">
-        <v>0.001544941844962899</v>
+        <v>0.001927956955700694</v>
       </c>
       <c r="J19">
-        <v>0.5465233438351618</v>
+        <v>0.507644819835221</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1951525372873277</v>
       </c>
       <c r="M19">
-        <v>1.385645755386776</v>
+        <v>0.1473049272142859</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5349946015474956</v>
+        <v>1.359392369158684</v>
       </c>
       <c r="P19">
-        <v>0.9244947651299711</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5306830623341625</v>
+      </c>
+      <c r="R19">
+        <v>0.8497714644375378</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.388597385389119</v>
+        <v>1.233940194852494</v>
       </c>
       <c r="C20">
-        <v>0.2311030745077289</v>
+        <v>0.2820603537079336</v>
       </c>
       <c r="D20">
-        <v>0.06290828271397686</v>
+        <v>0.07129132333034249</v>
       </c>
       <c r="E20">
-        <v>0.4591195299905309</v>
+        <v>0.4628308465946347</v>
       </c>
       <c r="F20">
-        <v>1.085988376896665</v>
+        <v>0.9336870990152022</v>
       </c>
       <c r="G20">
-        <v>0.9877703204523414</v>
+        <v>0.825283603064122</v>
       </c>
       <c r="H20">
-        <v>0.001743470244780276</v>
+        <v>0.001742828973362087</v>
       </c>
       <c r="I20">
-        <v>0.001818934220642277</v>
+        <v>0.002255908197327017</v>
       </c>
       <c r="J20">
-        <v>0.6350510374698359</v>
+        <v>0.5617615947881376</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2189723570173072</v>
       </c>
       <c r="M20">
-        <v>1.475841480822425</v>
+        <v>0.1782081607750783</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8770350568483991</v>
+        <v>1.440068712878173</v>
       </c>
       <c r="P20">
-        <v>1.007913219277803</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8696127027325602</v>
+      </c>
+      <c r="R20">
+        <v>0.8941364564864962</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.569079265264406</v>
+        <v>1.369561976608878</v>
       </c>
       <c r="C21">
-        <v>0.2591427409991098</v>
+        <v>0.3122460196389341</v>
       </c>
       <c r="D21">
-        <v>0.06624640758494849</v>
+        <v>0.07920688568797374</v>
       </c>
       <c r="E21">
-        <v>0.5446742615375086</v>
+        <v>0.5506494238120752</v>
       </c>
       <c r="F21">
-        <v>1.190489888625976</v>
+        <v>0.9780464369665651</v>
       </c>
       <c r="G21">
-        <v>1.08293113889394</v>
+        <v>0.9770699591008309</v>
       </c>
       <c r="H21">
-        <v>0.003554864022591309</v>
+        <v>0.00337533953240543</v>
       </c>
       <c r="I21">
-        <v>0.002817253177559209</v>
+        <v>0.003127393408382417</v>
       </c>
       <c r="J21">
-        <v>0.6749357574758932</v>
+        <v>0.4635629768571476</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2120199850949938</v>
       </c>
       <c r="M21">
-        <v>1.668182504690066</v>
+        <v>0.1910573587807178</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.017140329264556</v>
+        <v>1.597511308169516</v>
       </c>
       <c r="P21">
-        <v>0.9903646421880268</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.001816492839325</v>
+      </c>
+      <c r="R21">
+        <v>0.8487891031120967</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.689962402536906</v>
+        <v>1.459778873960062</v>
       </c>
       <c r="C22">
-        <v>0.2758670986925722</v>
+        <v>0.3292777537509437</v>
       </c>
       <c r="D22">
-        <v>0.0686311974879672</v>
+        <v>0.08490089306188509</v>
       </c>
       <c r="E22">
-        <v>0.5845682794836193</v>
+        <v>0.5921601065147684</v>
       </c>
       <c r="F22">
-        <v>1.256189036006177</v>
+        <v>1.002215909706848</v>
       </c>
       <c r="G22">
-        <v>1.14204006271207</v>
+        <v>1.083289967045104</v>
       </c>
       <c r="H22">
-        <v>0.005042920882611712</v>
+        <v>0.004694802834484202</v>
       </c>
       <c r="I22">
-        <v>0.003556187940769284</v>
+        <v>0.003590135399739403</v>
       </c>
       <c r="J22">
-        <v>0.6995114988905158</v>
+        <v>0.4004648439863701</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2068311384361792</v>
       </c>
       <c r="M22">
-        <v>1.793585697107574</v>
+        <v>0.1989102203348452</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.092496279956933</v>
+        <v>1.697848248000923</v>
       </c>
       <c r="P22">
-        <v>0.9769657703633357</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.0715289081718</v>
+      </c>
+      <c r="R22">
+        <v>0.8176608482243211</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.629285099840871</v>
+        <v>1.417031179248823</v>
       </c>
       <c r="C23">
-        <v>0.2655319663154927</v>
+        <v>0.3195999677240593</v>
       </c>
       <c r="D23">
-        <v>0.06717378754411385</v>
+        <v>0.08129298488892545</v>
       </c>
       <c r="E23">
-        <v>0.5632228263528631</v>
+        <v>0.5696545170744542</v>
       </c>
       <c r="F23">
-        <v>1.224501521232185</v>
+        <v>0.9964334824617964</v>
       </c>
       <c r="G23">
-        <v>1.114250613306623</v>
+        <v>1.020133106238518</v>
       </c>
       <c r="H23">
-        <v>0.004225506532067991</v>
+        <v>0.003978060291571106</v>
       </c>
       <c r="I23">
-        <v>0.002842622176747689</v>
+        <v>0.002978565680134437</v>
       </c>
       <c r="J23">
-        <v>0.6882874249230611</v>
+        <v>0.4468229639758761</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2111681691759877</v>
       </c>
       <c r="M23">
-        <v>1.727380246687005</v>
+        <v>0.1966006698195173</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.052425656295441</v>
+        <v>1.648116199008825</v>
       </c>
       <c r="P23">
-        <v>0.9866106136760777</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.035161659738982</v>
+      </c>
+      <c r="R23">
+        <v>0.837553559712731</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.393597613873567</v>
+        <v>1.237564601588389</v>
       </c>
       <c r="C24">
-        <v>0.2291839452617239</v>
+        <v>0.2803567159301537</v>
       </c>
       <c r="D24">
-        <v>0.06193356691179019</v>
+        <v>0.07015468314487805</v>
       </c>
       <c r="E24">
-        <v>0.4828721907638354</v>
+        <v>0.4866706464891308</v>
       </c>
       <c r="F24">
-        <v>1.100834861115288</v>
+        <v>0.9465878402966297</v>
       </c>
       <c r="G24">
-        <v>1.004506779747331</v>
+        <v>0.8386918583238554</v>
       </c>
       <c r="H24">
-        <v>0.001739825573569442</v>
+        <v>0.001737823019573037</v>
       </c>
       <c r="I24">
-        <v>0.001348680350605314</v>
+        <v>0.001686244250217683</v>
       </c>
       <c r="J24">
-        <v>0.6435888209034175</v>
+        <v>0.5699863516088044</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2223626137600547</v>
       </c>
       <c r="M24">
-        <v>1.476516776043383</v>
+        <v>0.1815329709201627</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9010068133660951</v>
+        <v>1.440702987467574</v>
       </c>
       <c r="P24">
-        <v>1.020111802335649</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8934728083919268</v>
+      </c>
+      <c r="R24">
+        <v>0.9025489141594001</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.140040936341535</v>
+        <v>1.021787622866754</v>
       </c>
       <c r="C25">
-        <v>0.1908789221922831</v>
+        <v>0.2284092101220807</v>
       </c>
       <c r="D25">
-        <v>0.05621596520023786</v>
+        <v>0.06164975913709725</v>
       </c>
       <c r="E25">
-        <v>0.3969225962461707</v>
+        <v>0.4008568518366431</v>
       </c>
       <c r="F25">
-        <v>0.9712468194487371</v>
+        <v>0.8488987829180559</v>
       </c>
       <c r="G25">
-        <v>0.889478926184168</v>
+        <v>0.7470615456007152</v>
       </c>
       <c r="H25">
-        <v>0.0002422258330456728</v>
+        <v>0.0002880496930099952</v>
       </c>
       <c r="I25">
-        <v>0.001225898311289164</v>
+        <v>0.001326018521313976</v>
       </c>
       <c r="J25">
-        <v>0.5972554440209592</v>
+        <v>0.5479960152850367</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2255175547127841</v>
       </c>
       <c r="M25">
-        <v>1.207832395634796</v>
+        <v>0.1574381688943518</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7387193147196029</v>
+        <v>1.183835088206081</v>
       </c>
       <c r="P25">
-        <v>1.05844878664454</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.733886416370801</v>
+      </c>
+      <c r="R25">
+        <v>0.9540657555575365</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
